--- a/Progresos/BitacoraBaudelio-PARA OPCIONES-ST.xlsx
+++ b/Progresos/BitacoraBaudelio-PARA OPCIONES-ST.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>OPEN DATE</t>
   </si>
@@ -97,15 +97,24 @@
   <si>
     <t xml:space="preserve">Prueba. Registro original. </t>
   </si>
+  <si>
+    <t>EJEMPLO</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -130,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +170,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -188,10 +203,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -200,10 +215,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -218,17 +233,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -537,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,7 +569,7 @@
   <dimension ref="A1:W434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,11 +588,11 @@
     <col min="12" max="12" width="7.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="10" style="5" customWidth="1"/>
     <col min="17" max="17" width="16.7109375" style="16" customWidth="1"/>
     <col min="18" max="18" width="34.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22" style="1" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" style="1" customWidth="1"/>
     <col min="20" max="22" width="13" style="1" customWidth="1"/>
     <col min="23" max="23" width="74" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
@@ -649,7 +670,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="17">
         <v>43328.44027777778</v>
       </c>
       <c r="B2" s="10">
@@ -664,7 +685,9 @@
       <c r="E2" s="9">
         <v>2</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="12">
@@ -712,52 +735,144 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>43950.418749999997</v>
+      </c>
+      <c r="B3" s="17">
+        <v>43950.431944444441</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="9">
         <v>2</v>
       </c>
       <c r="I3" s="12">
-        <v>34</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="9"/>
+        <v>16.350000000000001</v>
+      </c>
+      <c r="K3" s="12">
+        <v>17</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2</v>
+      </c>
       <c r="M3" s="12"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="6"/>
+      <c r="O3" s="6">
+        <f>((K3-I3)*L3*100)-4</f>
+        <v>125.99999999999972</v>
+      </c>
       <c r="P3" s="7"/>
-      <c r="Q3" s="15"/>
-      <c r="T3" s="13"/>
+      <c r="Q3" s="15">
+        <f>O3+P3</f>
+        <v>125.99999999999972</v>
+      </c>
+      <c r="T3" s="13">
+        <f>(K3-I3)/I3</f>
+        <v>3.9755351681957096E-2</v>
+      </c>
       <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
+      <c r="V3" s="13">
+        <f>T3+U3</f>
+        <v>3.9755351681957096E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>43956.418749999997</v>
+      </c>
+      <c r="B4" s="17">
+        <v>43956.594444444447</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="9">
-        <v>3</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="12">
+        <v>11.85</v>
+      </c>
+      <c r="K4" s="12">
+        <v>11.95</v>
+      </c>
+      <c r="L4" s="9">
+        <v>5</v>
+      </c>
       <c r="M4" s="12"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="6"/>
+      <c r="O4" s="6">
+        <f>((K4-I4)*L4*100)-10</f>
+        <v>39.999999999999822</v>
+      </c>
       <c r="P4" s="7"/>
-      <c r="Q4" s="15"/>
-      <c r="T4" s="13"/>
+      <c r="Q4" s="15">
+        <f>O4+P4</f>
+        <v>39.999999999999822</v>
+      </c>
+      <c r="T4" s="13">
+        <f>(K4-I4)/I4</f>
+        <v>8.4388185654008137E-3</v>
+      </c>
       <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
+      <c r="V4" s="13">
+        <f>T4+U4</f>
+        <v>8.4388185654008137E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="9"/>
+      <c r="A5" s="17">
+        <v>44005.418749999997</v>
+      </c>
+      <c r="B5" s="17">
+        <v>44006.400000000001</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>902.15</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="9"/>
+      <c r="K5" s="12">
+        <v>895.85</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
       <c r="N5" s="9"/>
-      <c r="O5" s="6"/>
+      <c r="O5" s="6">
+        <f>((K5-I5)*L5*100)-2</f>
+        <v>-631.99999999999545</v>
+      </c>
       <c r="P5" s="7"/>
-      <c r="Q5" s="15"/>
-      <c r="T5" s="13"/>
+      <c r="Q5" s="15">
+        <f>O5+P5</f>
+        <v>-631.99999999999545</v>
+      </c>
+      <c r="T5" s="13">
+        <f>(K5-I5)/I5</f>
+        <v>-6.983317630105808E-3</v>
+      </c>
       <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
+      <c r="V5" s="13">
+        <f>T5+U5</f>
+        <v>-6.983317630105808E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E6" s="9"/>
@@ -773,6 +888,7 @@
     </row>
     <row r="7" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E7" s="9"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="9"/>
       <c r="N7" s="9"/>
